--- a/assignments/assignment_5/group_3_ass_5_2023/ 2017_Julio.xlsx
+++ b/assignments/assignment_5/group_3_ass_5_2023/ 2017_Julio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="123">
   <si>
     <t>Corporativos</t>
   </si>
@@ -94,307 +94,295 @@
     <t>-</t>
   </si>
   <si>
-    <t>10.91</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>10.63</t>
-  </si>
-  <si>
-    <t>24.80</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>33.06</t>
-  </si>
-  <si>
-    <t>31.92</t>
-  </si>
-  <si>
-    <t>24.52</t>
-  </si>
-  <si>
-    <t>35.52</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>47.92</t>
-  </si>
-  <si>
-    <t>43.45</t>
-  </si>
-  <si>
-    <t>34.49</t>
-  </si>
-  <si>
-    <t>37.31</t>
-  </si>
-  <si>
-    <t>48.44</t>
-  </si>
-  <si>
-    <t>36.10</t>
-  </si>
-  <si>
-    <t>18.56</t>
-  </si>
-  <si>
-    <t>31.17</t>
-  </si>
-  <si>
-    <t>63.84</t>
-  </si>
-  <si>
-    <t>40.82</t>
-  </si>
-  <si>
-    <t>42.53</t>
-  </si>
-  <si>
-    <t>29.41</t>
-  </si>
-  <si>
-    <t>41.89</t>
-  </si>
-  <si>
-    <t>48.02</t>
-  </si>
-  <si>
-    <t>49.83</t>
-  </si>
-  <si>
-    <t>40.36</t>
-  </si>
-  <si>
-    <t>41.19</t>
-  </si>
-  <si>
-    <t>64.65</t>
-  </si>
-  <si>
-    <t>38.84</t>
-  </si>
-  <si>
-    <t>26.29</t>
-  </si>
-  <si>
-    <t>25.34</t>
-  </si>
-  <si>
-    <t>26.82</t>
-  </si>
-  <si>
-    <t>31.71</t>
-  </si>
-  <si>
-    <t>41.33</t>
-  </si>
-  <si>
-    <t>38.59</t>
-  </si>
-  <si>
-    <t>37.47</t>
-  </si>
-  <si>
-    <t>30.30</t>
-  </si>
-  <si>
-    <t>43.03</t>
-  </si>
-  <si>
-    <t>60.91</t>
-  </si>
-  <si>
-    <t>36.77</t>
-  </si>
-  <si>
-    <t>51.99</t>
-  </si>
-  <si>
-    <t>49.13</t>
-  </si>
-  <si>
-    <t>40.77</t>
-  </si>
-  <si>
-    <t>47.30</t>
-  </si>
-  <si>
-    <t>52.58</t>
-  </si>
-  <si>
-    <t>46.23</t>
-  </si>
-  <si>
-    <t>15.40</t>
-  </si>
-  <si>
-    <t>15.22</t>
-  </si>
-  <si>
-    <t>10.95</t>
-  </si>
-  <si>
-    <t>17.42</t>
-  </si>
-  <si>
-    <t>26.95</t>
-  </si>
-  <si>
-    <t>26.86</t>
-  </si>
-  <si>
-    <t>29.50</t>
-  </si>
-  <si>
-    <t>37.03</t>
-  </si>
-  <si>
-    <t>26.83</t>
-  </si>
-  <si>
-    <t>35.94</t>
-  </si>
-  <si>
-    <t>26.62</t>
-  </si>
-  <si>
-    <t>49.20</t>
-  </si>
-  <si>
-    <t>50.91</t>
-  </si>
-  <si>
-    <t>44.54</t>
-  </si>
-  <si>
-    <t>34.84</t>
-  </si>
-  <si>
-    <t>33.75</t>
-  </si>
-  <si>
-    <t>29.76</t>
-  </si>
-  <si>
-    <t>28.70</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>28.62</t>
-  </si>
-  <si>
-    <t>39.05</t>
-  </si>
-  <si>
-    <t>123.36</t>
-  </si>
-  <si>
-    <t>62.75</t>
-  </si>
-  <si>
-    <t>30.86</t>
-  </si>
-  <si>
-    <t>26.49</t>
-  </si>
-  <si>
-    <t>62.59</t>
-  </si>
-  <si>
-    <t>25.47</t>
-  </si>
-  <si>
-    <t>23.46</t>
+    <t>19.46</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>16.50</t>
+  </si>
+  <si>
+    <t>25.11</t>
+  </si>
+  <si>
+    <t>31.81</t>
+  </si>
+  <si>
+    <t>28.71</t>
+  </si>
+  <si>
+    <t>24.86</t>
+  </si>
+  <si>
+    <t>36.56</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>44.16</t>
+  </si>
+  <si>
+    <t>44.05</t>
+  </si>
+  <si>
+    <t>35.78</t>
+  </si>
+  <si>
+    <t>38.16</t>
+  </si>
+  <si>
+    <t>47.91</t>
+  </si>
+  <si>
+    <t>36.97</t>
+  </si>
+  <si>
+    <t>17.39</t>
+  </si>
+  <si>
+    <t>31.01</t>
+  </si>
+  <si>
+    <t>47.63</t>
+  </si>
+  <si>
+    <t>40.04</t>
+  </si>
+  <si>
+    <t>29.91</t>
+  </si>
+  <si>
+    <t>42.28</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>49.55</t>
+  </si>
+  <si>
+    <t>49.94</t>
+  </si>
+  <si>
+    <t>40.59</t>
+  </si>
+  <si>
+    <t>43.66</t>
+  </si>
+  <si>
+    <t>64.48</t>
+  </si>
+  <si>
+    <t>40.95</t>
+  </si>
+  <si>
+    <t>32.70</t>
+  </si>
+  <si>
+    <t>45.10</t>
+  </si>
+  <si>
+    <t>39.11</t>
+  </si>
+  <si>
+    <t>34.59</t>
+  </si>
+  <si>
+    <t>37.49</t>
+  </si>
+  <si>
+    <t>31.54</t>
+  </si>
+  <si>
+    <t>44.32</t>
+  </si>
+  <si>
+    <t>53.11</t>
+  </si>
+  <si>
+    <t>49.86</t>
+  </si>
+  <si>
+    <t>50.68</t>
+  </si>
+  <si>
+    <t>42.01</t>
+  </si>
+  <si>
+    <t>45.99</t>
+  </si>
+  <si>
+    <t>53.96</t>
+  </si>
+  <si>
+    <t>44.46</t>
+  </si>
+  <si>
+    <t>13.58</t>
+  </si>
+  <si>
+    <t>14.14</t>
+  </si>
+  <si>
+    <t>10.96</t>
+  </si>
+  <si>
+    <t>14.35</t>
+  </si>
+  <si>
+    <t>11.50</t>
+  </si>
+  <si>
+    <t>26.48</t>
+  </si>
+  <si>
+    <t>26.76</t>
+  </si>
+  <si>
+    <t>24.21</t>
+  </si>
+  <si>
+    <t>31.36</t>
+  </si>
+  <si>
+    <t>26.36</t>
+  </si>
+  <si>
+    <t>36.58</t>
+  </si>
+  <si>
+    <t>26.66</t>
+  </si>
+  <si>
+    <t>26.03</t>
+  </si>
+  <si>
+    <t>53.25</t>
+  </si>
+  <si>
+    <t>48.49</t>
+  </si>
+  <si>
+    <t>35.60</t>
+  </si>
+  <si>
+    <t>30.58</t>
+  </si>
+  <si>
+    <t>37.32</t>
+  </si>
+  <si>
+    <t>30.26</t>
+  </si>
+  <si>
+    <t>27.62</t>
+  </si>
+  <si>
+    <t>45.52</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>62.20</t>
+  </si>
+  <si>
+    <t>32.90</t>
+  </si>
+  <si>
+    <t>25.29</t>
+  </si>
+  <si>
+    <t>42.84</t>
+  </si>
+  <si>
+    <t>24.77</t>
+  </si>
+  <si>
+    <t>23.07</t>
+  </si>
+  <si>
+    <t>58.36</t>
   </si>
   <si>
     <t>42.16</t>
   </si>
   <si>
-    <t>25.06</t>
-  </si>
-  <si>
-    <t>23.32</t>
-  </si>
-  <si>
-    <t>29.94</t>
-  </si>
-  <si>
-    <t>58.36</t>
-  </si>
-  <si>
-    <t>47.34</t>
-  </si>
-  <si>
-    <t>40.62</t>
-  </si>
-  <si>
-    <t>29.38</t>
-  </si>
-  <si>
-    <t>27.20</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>37.11</t>
-  </si>
-  <si>
-    <t>26.67</t>
-  </si>
-  <si>
-    <t>12.53</t>
-  </si>
-  <si>
-    <t>15.55</t>
-  </si>
-  <si>
-    <t>11.41</t>
-  </si>
-  <si>
-    <t>26.59</t>
-  </si>
-  <si>
-    <t>30.46</t>
-  </si>
-  <si>
-    <t>37.96</t>
-  </si>
-  <si>
-    <t>35.11</t>
-  </si>
-  <si>
-    <t>25.91</t>
-  </si>
-  <si>
-    <t>39.65</t>
-  </si>
-  <si>
-    <t>37.36</t>
-  </si>
-  <si>
-    <t>56.65</t>
-  </si>
-  <si>
-    <t>47.89</t>
-  </si>
-  <si>
-    <t>37.04</t>
-  </si>
-  <si>
-    <t>48.76</t>
-  </si>
-  <si>
-    <t>35.78</t>
+    <t>23.52</t>
+  </si>
+  <si>
+    <t>22.96</t>
+  </si>
+  <si>
+    <t>31.51</t>
+  </si>
+  <si>
+    <t>50.93</t>
+  </si>
+  <si>
+    <t>44.28</t>
+  </si>
+  <si>
+    <t>31.04</t>
+  </si>
+  <si>
+    <t>27.88</t>
+  </si>
+  <si>
+    <t>30.12</t>
+  </si>
+  <si>
+    <t>14.51</t>
+  </si>
+  <si>
+    <t>17.77</t>
+  </si>
+  <si>
+    <t>13.38</t>
+  </si>
+  <si>
+    <t>26.68</t>
+  </si>
+  <si>
+    <t>29.05</t>
+  </si>
+  <si>
+    <t>33.29</t>
+  </si>
+  <si>
+    <t>32.24</t>
+  </si>
+  <si>
+    <t>26.11</t>
+  </si>
+  <si>
+    <t>40.63</t>
+  </si>
+  <si>
+    <t>39.75</t>
+  </si>
+  <si>
+    <t>55.73</t>
+  </si>
+  <si>
+    <t>49.42</t>
+  </si>
+  <si>
+    <t>38.52</t>
+  </si>
+  <si>
+    <t>37.70</t>
+  </si>
+  <si>
+    <t>47.75</t>
+  </si>
+  <si>
+    <t>36.47</t>
   </si>
 </sst>
 </file>
@@ -1107,10 +1095,10 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
@@ -1119,7 +1107,7 @@
         <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1185,10 +1173,10 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
@@ -1197,7 +1185,7 @@
         <v>25</v>
       </c>
       <c r="H18" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1205,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
@@ -1214,7 +1202,7 @@
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F19" t="s">
         <v>25</v>
@@ -1223,7 +1211,7 @@
         <v>25</v>
       </c>
       <c r="H19" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1231,7 +1219,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
@@ -1240,7 +1228,7 @@
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
@@ -1249,7 +1237,7 @@
         <v>25</v>
       </c>
       <c r="H20" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1263,10 +1251,10 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
@@ -1275,7 +1263,7 @@
         <v>25</v>
       </c>
       <c r="H21" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1286,22 +1274,22 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H22" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1341,7 +1329,7 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
         <v>25</v>
@@ -1353,7 +1341,7 @@
         <v>25</v>
       </c>
       <c r="H24" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1361,25 +1349,25 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="G25" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="H25" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1387,25 +1375,25 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F26" t="s">
         <v>25</v>
       </c>
       <c r="G26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H26" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1413,25 +1401,25 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F27" t="s">
         <v>25</v>
       </c>
       <c r="G27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H27" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1439,25 +1427,25 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H28" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1465,25 +1453,25 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H29" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1552,7 +1540,7 @@
         <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s">
         <v>25</v>
@@ -1561,7 +1549,7 @@
         <v>25</v>
       </c>
       <c r="H32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1575,7 +1563,7 @@
         <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
         <v>25</v>
@@ -1587,7 +1575,7 @@
         <v>25</v>
       </c>
       <c r="H33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1595,25 +1583,25 @@
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E34" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F34" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H34" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1621,25 +1609,25 @@
         <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E35" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F35" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H35" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1647,25 +1635,25 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F36" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H36" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1673,25 +1661,25 @@
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E37" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F37" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G37" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H37" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1699,25 +1687,25 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="F38" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G38" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H38" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1766,10 +1754,10 @@
         <v>25</v>
       </c>
       <c r="G40" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="H40" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1803,25 +1791,25 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G42" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H42" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1829,25 +1817,25 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D43" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F43" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G43" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1881,7 +1869,7 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
         <v>25</v>
@@ -1899,7 +1887,7 @@
         <v>25</v>
       </c>
       <c r="H45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1907,7 +1895,7 @@
         <v>24</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
         <v>25</v>
@@ -1925,7 +1913,7 @@
         <v>25</v>
       </c>
       <c r="H46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/assignments/assignment_5/group_3_ass_5_2023/ 2017_Julio.xlsx
+++ b/assignments/assignment_5/group_3_ass_5_2023/ 2017_Julio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="127">
   <si>
     <t>Corporativos</t>
   </si>
@@ -94,295 +94,307 @@
     <t>-</t>
   </si>
   <si>
-    <t>19.46</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>16.50</t>
-  </si>
-  <si>
-    <t>25.11</t>
-  </si>
-  <si>
-    <t>31.81</t>
-  </si>
-  <si>
-    <t>28.71</t>
-  </si>
-  <si>
-    <t>24.86</t>
-  </si>
-  <si>
-    <t>36.56</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>44.16</t>
-  </si>
-  <si>
-    <t>44.05</t>
+    <t>10.91</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>10.63</t>
+  </si>
+  <si>
+    <t>24.80</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>33.06</t>
+  </si>
+  <si>
+    <t>31.92</t>
+  </si>
+  <si>
+    <t>24.52</t>
+  </si>
+  <si>
+    <t>35.52</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>47.92</t>
+  </si>
+  <si>
+    <t>43.45</t>
+  </si>
+  <si>
+    <t>34.49</t>
+  </si>
+  <si>
+    <t>37.31</t>
+  </si>
+  <si>
+    <t>48.44</t>
+  </si>
+  <si>
+    <t>36.10</t>
+  </si>
+  <si>
+    <t>18.56</t>
+  </si>
+  <si>
+    <t>31.17</t>
+  </si>
+  <si>
+    <t>63.84</t>
+  </si>
+  <si>
+    <t>40.82</t>
+  </si>
+  <si>
+    <t>42.53</t>
+  </si>
+  <si>
+    <t>29.41</t>
+  </si>
+  <si>
+    <t>41.89</t>
+  </si>
+  <si>
+    <t>48.02</t>
+  </si>
+  <si>
+    <t>49.83</t>
+  </si>
+  <si>
+    <t>40.36</t>
+  </si>
+  <si>
+    <t>41.19</t>
+  </si>
+  <si>
+    <t>64.65</t>
+  </si>
+  <si>
+    <t>38.84</t>
+  </si>
+  <si>
+    <t>26.29</t>
+  </si>
+  <si>
+    <t>25.34</t>
+  </si>
+  <si>
+    <t>26.82</t>
+  </si>
+  <si>
+    <t>31.71</t>
+  </si>
+  <si>
+    <t>41.33</t>
+  </si>
+  <si>
+    <t>38.59</t>
+  </si>
+  <si>
+    <t>37.47</t>
+  </si>
+  <si>
+    <t>30.30</t>
+  </si>
+  <si>
+    <t>43.03</t>
+  </si>
+  <si>
+    <t>60.91</t>
+  </si>
+  <si>
+    <t>36.77</t>
+  </si>
+  <si>
+    <t>51.99</t>
+  </si>
+  <si>
+    <t>49.13</t>
+  </si>
+  <si>
+    <t>40.77</t>
+  </si>
+  <si>
+    <t>47.30</t>
+  </si>
+  <si>
+    <t>52.58</t>
+  </si>
+  <si>
+    <t>46.23</t>
+  </si>
+  <si>
+    <t>15.40</t>
+  </si>
+  <si>
+    <t>15.22</t>
+  </si>
+  <si>
+    <t>10.95</t>
+  </si>
+  <si>
+    <t>17.42</t>
+  </si>
+  <si>
+    <t>26.95</t>
+  </si>
+  <si>
+    <t>26.86</t>
+  </si>
+  <si>
+    <t>29.50</t>
+  </si>
+  <si>
+    <t>37.03</t>
+  </si>
+  <si>
+    <t>26.83</t>
+  </si>
+  <si>
+    <t>35.94</t>
+  </si>
+  <si>
+    <t>26.62</t>
+  </si>
+  <si>
+    <t>49.20</t>
+  </si>
+  <si>
+    <t>50.91</t>
+  </si>
+  <si>
+    <t>44.54</t>
+  </si>
+  <si>
+    <t>34.84</t>
+  </si>
+  <si>
+    <t>33.75</t>
+  </si>
+  <si>
+    <t>29.76</t>
+  </si>
+  <si>
+    <t>28.70</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>28.62</t>
+  </si>
+  <si>
+    <t>39.05</t>
+  </si>
+  <si>
+    <t>123.36</t>
+  </si>
+  <si>
+    <t>62.75</t>
+  </si>
+  <si>
+    <t>30.86</t>
+  </si>
+  <si>
+    <t>26.49</t>
+  </si>
+  <si>
+    <t>62.59</t>
+  </si>
+  <si>
+    <t>25.47</t>
+  </si>
+  <si>
+    <t>23.46</t>
+  </si>
+  <si>
+    <t>42.16</t>
+  </si>
+  <si>
+    <t>25.06</t>
+  </si>
+  <si>
+    <t>23.32</t>
+  </si>
+  <si>
+    <t>29.94</t>
+  </si>
+  <si>
+    <t>58.36</t>
+  </si>
+  <si>
+    <t>47.34</t>
+  </si>
+  <si>
+    <t>40.62</t>
+  </si>
+  <si>
+    <t>29.38</t>
+  </si>
+  <si>
+    <t>27.20</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>37.11</t>
+  </si>
+  <si>
+    <t>26.67</t>
+  </si>
+  <si>
+    <t>12.53</t>
+  </si>
+  <si>
+    <t>15.55</t>
+  </si>
+  <si>
+    <t>11.41</t>
+  </si>
+  <si>
+    <t>26.59</t>
+  </si>
+  <si>
+    <t>30.46</t>
+  </si>
+  <si>
+    <t>37.96</t>
+  </si>
+  <si>
+    <t>35.11</t>
+  </si>
+  <si>
+    <t>25.91</t>
+  </si>
+  <si>
+    <t>39.65</t>
+  </si>
+  <si>
+    <t>37.36</t>
+  </si>
+  <si>
+    <t>56.65</t>
+  </si>
+  <si>
+    <t>47.89</t>
+  </si>
+  <si>
+    <t>37.04</t>
+  </si>
+  <si>
+    <t>48.76</t>
   </si>
   <si>
     <t>35.78</t>
-  </si>
-  <si>
-    <t>38.16</t>
-  </si>
-  <si>
-    <t>47.91</t>
-  </si>
-  <si>
-    <t>36.97</t>
-  </si>
-  <si>
-    <t>17.39</t>
-  </si>
-  <si>
-    <t>31.01</t>
-  </si>
-  <si>
-    <t>47.63</t>
-  </si>
-  <si>
-    <t>40.04</t>
-  </si>
-  <si>
-    <t>29.91</t>
-  </si>
-  <si>
-    <t>42.28</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>49.55</t>
-  </si>
-  <si>
-    <t>49.94</t>
-  </si>
-  <si>
-    <t>40.59</t>
-  </si>
-  <si>
-    <t>43.66</t>
-  </si>
-  <si>
-    <t>64.48</t>
-  </si>
-  <si>
-    <t>40.95</t>
-  </si>
-  <si>
-    <t>32.70</t>
-  </si>
-  <si>
-    <t>45.10</t>
-  </si>
-  <si>
-    <t>39.11</t>
-  </si>
-  <si>
-    <t>34.59</t>
-  </si>
-  <si>
-    <t>37.49</t>
-  </si>
-  <si>
-    <t>31.54</t>
-  </si>
-  <si>
-    <t>44.32</t>
-  </si>
-  <si>
-    <t>53.11</t>
-  </si>
-  <si>
-    <t>49.86</t>
-  </si>
-  <si>
-    <t>50.68</t>
-  </si>
-  <si>
-    <t>42.01</t>
-  </si>
-  <si>
-    <t>45.99</t>
-  </si>
-  <si>
-    <t>53.96</t>
-  </si>
-  <si>
-    <t>44.46</t>
-  </si>
-  <si>
-    <t>13.58</t>
-  </si>
-  <si>
-    <t>14.14</t>
-  </si>
-  <si>
-    <t>10.96</t>
-  </si>
-  <si>
-    <t>14.35</t>
-  </si>
-  <si>
-    <t>11.50</t>
-  </si>
-  <si>
-    <t>26.48</t>
-  </si>
-  <si>
-    <t>26.76</t>
-  </si>
-  <si>
-    <t>24.21</t>
-  </si>
-  <si>
-    <t>31.36</t>
-  </si>
-  <si>
-    <t>26.36</t>
-  </si>
-  <si>
-    <t>36.58</t>
-  </si>
-  <si>
-    <t>26.66</t>
-  </si>
-  <si>
-    <t>26.03</t>
-  </si>
-  <si>
-    <t>53.25</t>
-  </si>
-  <si>
-    <t>48.49</t>
-  </si>
-  <si>
-    <t>35.60</t>
-  </si>
-  <si>
-    <t>30.58</t>
-  </si>
-  <si>
-    <t>37.32</t>
-  </si>
-  <si>
-    <t>30.26</t>
-  </si>
-  <si>
-    <t>27.62</t>
-  </si>
-  <si>
-    <t>45.52</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>62.20</t>
-  </si>
-  <si>
-    <t>32.90</t>
-  </si>
-  <si>
-    <t>25.29</t>
-  </si>
-  <si>
-    <t>42.84</t>
-  </si>
-  <si>
-    <t>24.77</t>
-  </si>
-  <si>
-    <t>23.07</t>
-  </si>
-  <si>
-    <t>58.36</t>
-  </si>
-  <si>
-    <t>42.16</t>
-  </si>
-  <si>
-    <t>23.52</t>
-  </si>
-  <si>
-    <t>22.96</t>
-  </si>
-  <si>
-    <t>31.51</t>
-  </si>
-  <si>
-    <t>50.93</t>
-  </si>
-  <si>
-    <t>44.28</t>
-  </si>
-  <si>
-    <t>31.04</t>
-  </si>
-  <si>
-    <t>27.88</t>
-  </si>
-  <si>
-    <t>30.12</t>
-  </si>
-  <si>
-    <t>14.51</t>
-  </si>
-  <si>
-    <t>17.77</t>
-  </si>
-  <si>
-    <t>13.38</t>
-  </si>
-  <si>
-    <t>26.68</t>
-  </si>
-  <si>
-    <t>29.05</t>
-  </si>
-  <si>
-    <t>33.29</t>
-  </si>
-  <si>
-    <t>32.24</t>
-  </si>
-  <si>
-    <t>26.11</t>
-  </si>
-  <si>
-    <t>40.63</t>
-  </si>
-  <si>
-    <t>39.75</t>
-  </si>
-  <si>
-    <t>55.73</t>
-  </si>
-  <si>
-    <t>49.42</t>
-  </si>
-  <si>
-    <t>38.52</t>
-  </si>
-  <si>
-    <t>37.70</t>
-  </si>
-  <si>
-    <t>47.75</t>
-  </si>
-  <si>
-    <t>36.47</t>
   </si>
 </sst>
 </file>
@@ -1095,10 +1107,10 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
@@ -1107,7 +1119,7 @@
         <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1173,10 +1185,10 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
@@ -1185,7 +1197,7 @@
         <v>25</v>
       </c>
       <c r="H18" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1193,7 +1205,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
@@ -1202,7 +1214,7 @@
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
         <v>25</v>
@@ -1211,7 +1223,7 @@
         <v>25</v>
       </c>
       <c r="H19" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1219,7 +1231,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
@@ -1228,7 +1240,7 @@
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
@@ -1237,7 +1249,7 @@
         <v>25</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1251,10 +1263,10 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
@@ -1263,7 +1275,7 @@
         <v>25</v>
       </c>
       <c r="H21" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1274,22 +1286,22 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H22" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1329,7 +1341,7 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
         <v>25</v>
@@ -1341,7 +1353,7 @@
         <v>25</v>
       </c>
       <c r="H24" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1349,25 +1361,25 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="H25" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1375,25 +1387,25 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s">
         <v>25</v>
       </c>
       <c r="G26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H26" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1401,25 +1413,25 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s">
         <v>25</v>
       </c>
       <c r="G27" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H27" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1427,25 +1439,25 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F28" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G28" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H28" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1453,25 +1465,25 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F29" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G29" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H29" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1540,7 +1552,7 @@
         <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F32" t="s">
         <v>25</v>
@@ -1549,7 +1561,7 @@
         <v>25</v>
       </c>
       <c r="H32" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1563,7 +1575,7 @@
         <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E33" t="s">
         <v>25</v>
@@ -1575,7 +1587,7 @@
         <v>25</v>
       </c>
       <c r="H33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1583,25 +1595,25 @@
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E34" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F34" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="G34" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H34" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1609,25 +1621,25 @@
         <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E35" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F35" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G35" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H35" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1635,25 +1647,25 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E36" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F36" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G36" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H36" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1661,25 +1673,25 @@
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E37" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G37" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H37" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1687,25 +1699,25 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E38" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G38" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H38" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1754,10 +1766,10 @@
         <v>25</v>
       </c>
       <c r="G40" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="H40" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1791,25 +1803,25 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E42" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F42" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G42" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H42" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1817,25 +1829,25 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E43" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F43" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G43" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="H43" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1869,7 +1881,7 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
         <v>25</v>
@@ -1887,7 +1899,7 @@
         <v>25</v>
       </c>
       <c r="H45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1895,7 +1907,7 @@
         <v>24</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C46" t="s">
         <v>25</v>
@@ -1913,7 +1925,7 @@
         <v>25</v>
       </c>
       <c r="H46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
